--- a/09-septiembre/6-portal-cliente/2025-septiembre/NOVEDADES SETIEMBRE 2025.xlsx
+++ b/09-septiembre/6-portal-cliente/2025-septiembre/NOVEDADES SETIEMBRE 2025.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirua\Documents\GitHub\sueldos-oficina\09-septiembre\6-portal-cliente\2025-septiembre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1089AC5F-AE71-4AA6-B1CA-C99EE4F5C9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F6B356-066E-4CA5-AA8B-FE67422C3CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19920" yWindow="3075" windowWidth="12195" windowHeight="10650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16164" yWindow="912" windowWidth="11292" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="64">
   <si>
     <t>RODRIGO DE BARRENECHEA</t>
   </si>
@@ -205,6 +216,18 @@
   </si>
   <si>
     <t>NOVELLO, MICAELA E. , ALTA 01/09/2025</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>sac prop</t>
+  </si>
+  <si>
+    <t>sac vac no goz</t>
+  </si>
+  <si>
+    <t>vac no goz</t>
   </si>
 </sst>
 </file>
@@ -309,7 +332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -319,6 +342,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -600,14 +624,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H106"/>
+  <dimension ref="A2:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
     <col min="2" max="2" width="17.88671875" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -777,12 +802,14 @@
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="9">
+        <v>658966.26</v>
+      </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -790,7 +817,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -800,511 +827,584 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B30" s="9">
+        <f>+B28/12*3</f>
+        <v>164741.565</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B31" s="9">
+        <f>+B28/25*21</f>
+        <v>553531.65839999996</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="9">
+        <f>+B31/12</f>
+        <v>46127.638199999994</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
+    <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A48" s="4" t="s">
-        <v>51</v>
-      </c>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F57" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G57" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A59" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="F61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>40</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A63" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
+      <c r="A64" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" t="s">
-        <v>23</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A68" s="4" t="s">
-        <v>51</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="1"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A72" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" t="s">
-        <v>23</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-    </row>
-    <row r="77" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A77" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B77" s="1"/>
-      <c r="F77" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G77" s="4"/>
-      <c r="H77" s="1"/>
-    </row>
-    <row r="78" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A78" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B78" s="4"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G78" s="4"/>
-      <c r="H78" s="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
       <c r="C79" t="s">
         <v>23</v>
       </c>
-      <c r="E79" t="s">
-        <v>23</v>
-      </c>
       <c r="F79" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G79" s="1"/>
+        <v>34</v>
+      </c>
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D80" t="s">
-        <v>23</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G81" s="1"/>
+    <row r="81" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A81" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="F81" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G81" s="4"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G82" s="1"/>
+    <row r="82" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A82" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B82" s="4"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G82" s="4"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A83" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" t="s">
+        <v>23</v>
+      </c>
+      <c r="E83" t="s">
+        <v>23</v>
+      </c>
       <c r="F83" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="1"/>
-      <c r="F84" s="1"/>
+      <c r="A84" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D84" t="s">
+        <v>23</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C86" t="s">
-        <v>21</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
     </row>
     <row r="87" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
-        <v>51</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="F87" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="1"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A91" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="1"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="1"/>
-      <c r="F93" s="1" t="s">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="1"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="1"/>
+      <c r="F97" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A94" s="6" t="s">
+    <row r="98" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A98" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C94" t="s">
-        <v>23</v>
-      </c>
-      <c r="E94" t="s">
-        <v>23</v>
-      </c>
-      <c r="F94" s="4" t="s">
+      <c r="C98" t="s">
+        <v>23</v>
+      </c>
+      <c r="E98" t="s">
+        <v>23</v>
+      </c>
+      <c r="F98" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G94" s="4"/>
-      <c r="H94" s="1"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+      <c r="G98" s="4"/>
+      <c r="H98" s="1"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>20</v>
       </c>
-      <c r="E95" t="s">
-        <v>23</v>
-      </c>
-      <c r="F95" s="1" t="s">
+      <c r="E99" t="s">
+        <v>23</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
+    <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A98" s="4" t="s">
+    <row r="102" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A102" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" s="1"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="1"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C104" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
+      <c r="C108" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>19916.72</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>23900.06</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <f>+A113-A112</f>
+        <v>3983.34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/09-septiembre/6-portal-cliente/2025-septiembre/NOVEDADES SETIEMBRE 2025.xlsx
+++ b/09-septiembre/6-portal-cliente/2025-septiembre/NOVEDADES SETIEMBRE 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirua\Documents\GitHub\sueldos-oficina\09-septiembre\6-portal-cliente\2025-septiembre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F6B356-066E-4CA5-AA8B-FE67422C3CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1304AEE-767A-4508-BAE6-F1C5253D943D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16164" yWindow="912" windowWidth="11292" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4224" yWindow="528" windowWidth="14640" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -332,7 +332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -343,6 +343,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -626,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1046,15 +1047,34 @@
       <c r="A62" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E62" s="10">
+        <v>610147.11</v>
+      </c>
+      <c r="F62" s="10">
+        <f>+E62/25</f>
+        <v>24405.884399999999</v>
+      </c>
     </row>
     <row r="63" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="E63" s="10">
+        <v>610147.11</v>
+      </c>
+      <c r="F63" s="10">
+        <f>+E63/30</f>
+        <v>20338.237000000001</v>
+      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10">
+        <f>+F62-F63</f>
+        <v>4067.647399999998</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">

--- a/09-septiembre/6-portal-cliente/2025-septiembre/NOVEDADES SETIEMBRE 2025.xlsx
+++ b/09-septiembre/6-portal-cliente/2025-septiembre/NOVEDADES SETIEMBRE 2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirua\Documents\GitHub\sueldos-oficina\09-septiembre\6-portal-cliente\2025-septiembre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\09-septiembre\6-portal-cliente\2025-septiembre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1304AEE-767A-4508-BAE6-F1C5253D943D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF90346-2DDB-4B72-9032-80F25A245DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4224" yWindow="528" windowWidth="14640" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -346,7 +346,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -627,68 +627,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -696,61 +696,61 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -766,7 +766,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>52</v>
@@ -778,7 +778,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>53</v>
@@ -790,7 +790,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>54</v>
@@ -802,7 +802,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
@@ -816,7 +816,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="9"/>
       <c r="C29" s="1"/>
@@ -826,7 +826,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>61</v>
       </c>
@@ -841,7 +841,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>63</v>
       </c>
@@ -856,7 +856,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
@@ -873,7 +873,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -883,7 +883,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
@@ -899,7 +899,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
@@ -907,7 +907,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
@@ -915,17 +915,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -934,22 +934,22 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>28</v>
       </c>
@@ -957,23 +957,23 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>12</v>
       </c>
@@ -981,7 +981,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -990,22 +990,22 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>28</v>
       </c>
@@ -1013,22 +1013,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -1037,13 +1037,13 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F61" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>6</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>24405.884399999999</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>51</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>20338.237000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>37</v>
       </c>
@@ -1077,25 +1077,25 @@
         <v>4067.647399999998</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>7</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -1115,22 +1115,22 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>28</v>
       </c>
@@ -1138,23 +1138,23 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" t="s">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>9</v>
       </c>
@@ -1174,7 +1174,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>17</v>
       </c>
@@ -1185,7 +1185,7 @@
       <c r="G81" s="4"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>41</v>
       </c>
@@ -1199,7 +1199,7 @@
       <c r="G82" s="4"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>18</v>
       </c>
@@ -1215,7 +1215,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>43</v>
       </c>
@@ -1228,7 +1228,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>45</v>
       </c>
@@ -1238,7 +1238,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>44</v>
       </c>
@@ -1248,7 +1248,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>59</v>
       </c>
@@ -1260,13 +1260,13 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -1276,7 +1276,7 @@
       <c r="G89" s="8"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>9</v>
       </c>
@@ -1284,17 +1284,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>28</v>
       </c>
@@ -1302,26 +1302,26 @@
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="F97" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>19</v>
       </c>
@@ -1337,7 +1337,7 @@
       <c r="G98" s="4"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>20</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -1357,22 +1357,22 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>28</v>
       </c>
@@ -1380,20 +1380,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>11</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -1410,17 +1410,17 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>19916.72</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>23900.06</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
         <f>+A113-A112</f>
         <v>3983.34</v>
